--- a/Crawling/music/crawled_data/mod_melon/live_melon_20220422_110438.xlsx
+++ b/Crawling/music/crawled_data/mod_melon/live_melon_20220422_110438.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>melon</t>
+    <t>Melon</t>
   </si>
   <si>
     <t>2022-04-22</t>

--- a/Crawling/music/crawled_data/mod_melon/live_melon_20220422_110438.xlsx
+++ b/Crawling/music/crawled_data/mod_melon/live_melon_20220422_110438.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="273">
   <si>
     <t>사이트</t>
   </si>
@@ -760,7 +760,7 @@
     <t>SONY MUSIC</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>EDAM</t>
@@ -812,9 +812,6 @@
   </si>
   <si>
     <t>꿈의엔진</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
   <si>
     <t>P NATION</t>
@@ -1300,7 +1297,7 @@
         <v>233</v>
       </c>
       <c r="H4" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1352,7 +1349,7 @@
         <v>235</v>
       </c>
       <c r="H6" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1378,7 +1375,7 @@
         <v>236</v>
       </c>
       <c r="H7" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1404,7 +1401,7 @@
         <v>237</v>
       </c>
       <c r="H8" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1430,7 +1427,7 @@
         <v>235</v>
       </c>
       <c r="H9" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1456,7 +1453,7 @@
         <v>236</v>
       </c>
       <c r="H10" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1508,7 +1505,7 @@
         <v>236</v>
       </c>
       <c r="H12" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1534,7 +1531,7 @@
         <v>238</v>
       </c>
       <c r="H13" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1586,7 +1583,7 @@
         <v>236</v>
       </c>
       <c r="H15" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1638,7 +1635,7 @@
         <v>236</v>
       </c>
       <c r="H17" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1664,7 +1661,7 @@
         <v>236</v>
       </c>
       <c r="H18" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1690,7 +1687,7 @@
         <v>240</v>
       </c>
       <c r="H19" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1716,7 +1713,7 @@
         <v>236</v>
       </c>
       <c r="H20" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1742,7 +1739,7 @@
         <v>241</v>
       </c>
       <c r="H21" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1768,7 +1765,7 @@
         <v>242</v>
       </c>
       <c r="H22" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1794,7 +1791,7 @@
         <v>236</v>
       </c>
       <c r="H23" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1820,7 +1817,7 @@
         <v>243</v>
       </c>
       <c r="H24" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1846,7 +1843,7 @@
         <v>244</v>
       </c>
       <c r="H25" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1872,7 +1869,7 @@
         <v>245</v>
       </c>
       <c r="H26" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1898,7 +1895,7 @@
         <v>236</v>
       </c>
       <c r="H27" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1924,7 +1921,7 @@
         <v>246</v>
       </c>
       <c r="H28" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1950,7 +1947,7 @@
         <v>247</v>
       </c>
       <c r="H29" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1976,7 +1973,7 @@
         <v>248</v>
       </c>
       <c r="H30" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2002,7 +1999,7 @@
         <v>249</v>
       </c>
       <c r="H31" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2028,7 +2025,7 @@
         <v>233</v>
       </c>
       <c r="H32" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2054,7 +2051,7 @@
         <v>250</v>
       </c>
       <c r="H33" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2080,7 +2077,7 @@
         <v>249</v>
       </c>
       <c r="H34" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2184,7 +2181,7 @@
         <v>236</v>
       </c>
       <c r="H38" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2210,7 +2207,7 @@
         <v>251</v>
       </c>
       <c r="H39" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2262,7 +2259,7 @@
         <v>252</v>
       </c>
       <c r="H41" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2314,7 +2311,7 @@
         <v>253</v>
       </c>
       <c r="H43" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2366,7 +2363,7 @@
         <v>248</v>
       </c>
       <c r="H45" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2418,7 +2415,7 @@
         <v>255</v>
       </c>
       <c r="H47" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2470,7 +2467,7 @@
         <v>256</v>
       </c>
       <c r="H49" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2496,7 +2493,7 @@
         <v>257</v>
       </c>
       <c r="H50" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2522,7 +2519,7 @@
         <v>241</v>
       </c>
       <c r="H51" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2548,7 +2545,7 @@
         <v>249</v>
       </c>
       <c r="H52" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2574,7 +2571,7 @@
         <v>246</v>
       </c>
       <c r="H53" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2600,7 +2597,7 @@
         <v>252</v>
       </c>
       <c r="H54" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2626,7 +2623,7 @@
         <v>238</v>
       </c>
       <c r="H55" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2652,7 +2649,7 @@
         <v>258</v>
       </c>
       <c r="H56" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2678,7 +2675,7 @@
         <v>259</v>
       </c>
       <c r="H57" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2782,7 +2779,7 @@
         <v>248</v>
       </c>
       <c r="H61" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2860,7 +2857,7 @@
         <v>249</v>
       </c>
       <c r="H64" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2886,7 +2883,7 @@
         <v>246</v>
       </c>
       <c r="H65" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2912,7 +2909,7 @@
         <v>249</v>
       </c>
       <c r="H66" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2938,7 +2935,7 @@
         <v>249</v>
       </c>
       <c r="H67" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2990,7 +2987,7 @@
         <v>261</v>
       </c>
       <c r="H69" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3016,7 +3013,7 @@
         <v>262</v>
       </c>
       <c r="H70" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3042,7 +3039,7 @@
         <v>263</v>
       </c>
       <c r="H71" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3068,7 +3065,7 @@
         <v>246</v>
       </c>
       <c r="H72" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3094,7 +3091,7 @@
         <v>264</v>
       </c>
       <c r="H73" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3146,7 +3143,7 @@
         <v>255</v>
       </c>
       <c r="H75" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3172,7 +3169,7 @@
         <v>246</v>
       </c>
       <c r="H76" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3198,7 +3195,7 @@
         <v>265</v>
       </c>
       <c r="H77" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3224,7 +3221,7 @@
         <v>248</v>
       </c>
       <c r="H78" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3250,7 +3247,7 @@
         <v>246</v>
       </c>
       <c r="H79" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3273,10 +3270,10 @@
         <v>215</v>
       </c>
       <c r="G80" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="H80" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3302,7 +3299,7 @@
         <v>235</v>
       </c>
       <c r="H81" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3328,7 +3325,7 @@
         <v>250</v>
       </c>
       <c r="H82" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3351,10 +3348,10 @@
         <v>218</v>
       </c>
       <c r="G83" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H83" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3403,10 +3400,10 @@
         <v>220</v>
       </c>
       <c r="G85" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H85" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3429,10 +3426,10 @@
         <v>94</v>
       </c>
       <c r="G86" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H86" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3455,10 +3452,10 @@
         <v>95</v>
       </c>
       <c r="G87" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H87" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3484,7 +3481,7 @@
         <v>248</v>
       </c>
       <c r="H88" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3510,7 +3507,7 @@
         <v>248</v>
       </c>
       <c r="H89" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3533,10 +3530,10 @@
         <v>223</v>
       </c>
       <c r="G90" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H90" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3562,7 +3559,7 @@
         <v>243</v>
       </c>
       <c r="H91" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3588,7 +3585,7 @@
         <v>249</v>
       </c>
       <c r="H92" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3637,10 +3634,10 @@
         <v>225</v>
       </c>
       <c r="G94" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="H94" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3666,7 +3663,7 @@
         <v>246</v>
       </c>
       <c r="H95" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3689,10 +3686,10 @@
         <v>104</v>
       </c>
       <c r="G96" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H96" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3767,10 +3764,10 @@
         <v>228</v>
       </c>
       <c r="G99" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H99" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3796,7 +3793,7 @@
         <v>248</v>
       </c>
       <c r="H100" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3819,10 +3816,10 @@
         <v>230</v>
       </c>
       <c r="G101" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H101" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
